--- a/TestData/Unified_TestData.xlsx
+++ b/TestData/Unified_TestData.xlsx
@@ -264,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -294,22 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -319,21 +303,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,6 +363,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -402,7 +394,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +421,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -445,49 +445,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,133 +601,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,41 +660,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -737,6 +702,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -760,157 +749,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -930,7 +930,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="50" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -1308,7 +1307,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -1317,13 +1316,13 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -1334,7 +1333,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
@@ -1343,13 +1342,13 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="s">
@@ -1417,7 +1416,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -1426,13 +1425,13 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -1443,7 +1442,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
@@ -1458,7 +1457,7 @@
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="s">
@@ -1552,7 +1551,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -1585,18 +1584,18 @@
       <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
@@ -1605,7 +1604,7 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1629,13 +1628,13 @@
       <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1696,7 +1695,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -1711,7 +1710,7 @@
       <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
@@ -1722,7 +1721,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
@@ -2012,7 +2011,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -2021,7 +2020,7 @@
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E2" s="6">
@@ -2047,7 +2046,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
@@ -2098,8 +2097,8 @@
   <sheetPr/>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -2164,7 +2163,7 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -2197,13 +2196,13 @@
       <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -2214,7 +2213,7 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
@@ -2223,7 +2222,7 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2247,16 +2246,16 @@
       <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>78</v>
       </c>
       <c r="P3">
